--- a/数据整理/stocks/A股/上证主板/600325-华发股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600325-华发股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007751</t>
+          <t>161038</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+          <t>富国新兴成长量化精选混合（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.22</t>
+          <t>6.26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007760</t>
+          <t>007751</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.22</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.08</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161038</t>
+          <t>007760</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国新兴成长量化精选混合（LOF）</t>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>86.83</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>97.85</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1.78</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -650,26 +710,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161038</t>
+          <t>161017</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国新兴成长量化精选混合（LOF）</t>
+          <t>富国中证500指数增强(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>87.76</t>
+          <t>47.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4649</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -678,26 +748,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>161017</t>
+          <t>161038</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国中证500指数增强(LOF)</t>
+          <t>富国新兴成长量化精选混合（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.64</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -716,15 +796,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>91.12</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.92</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -744,15 +834,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>91.12</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1.92</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600325-华发股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600325-华发股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162907</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600325-华发股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600325-华发股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1030,4 +1031,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162907</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600325-华发股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600325-华发股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1163,4 +1164,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600325-华发股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600325-华发股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1172,7 +1173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1183,17 +1184,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1203,14 +1224,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>177.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.9412</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1219,14 +1262,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.01</v>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1009</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1235,14 +1300,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.55</v>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0380</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1251,13 +1338,683 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4691</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2402</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2333</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1442</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>162907</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.369999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600325-华发股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600325-华发股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1913,7 +1914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1924,17 +1925,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1944,14 +1965,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.369999999999999</v>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>181.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.7739</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1960,14 +2003,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>53.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5580</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1976,14 +2041,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01</v>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6506</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1992,14 +2079,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.55</v>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0607</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2008,13 +2117,1269 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5970</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3045</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1781</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1658</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>900027</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006652</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>162907</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011124</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001273</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>民生加银新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001274</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>民生加银新动力灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>900087</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>900077</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.369999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600325-华发股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600325-华发股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3262,7 +3263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3273,17 +3274,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3293,14 +3314,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>34</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.89</v>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>178.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.8246</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3309,14 +3352,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.369999999999999</v>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3359</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -3325,14 +3390,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>73.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3306</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3341,14 +3428,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.01</v>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5666</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -3357,14 +3466,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3828</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.55</v>
       </c>
     </row>
     <row r="7">
@@ -3373,13 +3504,2121 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3096</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2387</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1820</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1486</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006022</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1353</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1352</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1312</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010568</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008682</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0984</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159610</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺长城中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014344</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008851</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺长城量化对冲策略三个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>78.18</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005125</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015042</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010569</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.17</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008736</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014345</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>95.36</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>79.92</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008737</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>79.92</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009387</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>42.03</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011494</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>33.96</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013881</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014181</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009388</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>42.03</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011495</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>33.96</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>015558</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>万家中证红利指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>57</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.369999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600325-华发股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600325-华发股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="D2" t="n">
-        <v>11.52</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D3" t="n">
-        <v>12.89</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>8.369999999999999</v>
+        <v>12.89</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>8.369999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.55</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -600,6 +617,4312 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H113"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>140.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.1127</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>117.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3804</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2146</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6420</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>960002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏回报混合H</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>122.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>48.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6112</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>54.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5725</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161606</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通行业景气混合A/B</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0999</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>40.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0485</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011338</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>31.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9121</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6630</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002021</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏回报二号混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>50.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>51.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6577</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>340006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴全全球视野股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5773</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>32.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5590</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.81</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4539</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3426</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2950</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161610</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>融通领先成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.57</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2637</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2515</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008682</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2373</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2216</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>450010</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国富策略回报混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1986</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>161601</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>融通新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>70.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1860</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1708</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010790</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1629</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1614</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011011</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>融通产业趋势精选2年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1588</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1352</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009277</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>融通行业景气混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1195</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1148</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010568</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>14.45</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1098</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010791</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>020018</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰金鹿混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159768</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银华中证内地地产主题ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>97.47</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>014135</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中欧金安量化混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>78.49</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>159758</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏中证红利质量ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001990</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>82.13</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010569</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159707</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华宝中证800地产ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011339</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005125</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012080</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>015042</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009499</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>015674</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014996</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中欧量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>万家中证红利指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014995</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中欧量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>015006</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中欧量化动力混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011376</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华宝安享混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>48.69</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006072</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>003176</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>德邦景颐债券A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>22.77</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009999</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>东方中国红利混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>79.37</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002955</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>融通新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004680</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>前海开源裕瑞混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>39.41</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>012081</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>012498</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>汇添富中证500基本面增强指数A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>003233</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>创金合信金融地产精选股票C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004234</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>82.13</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>015007</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中欧量化动力混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>96.51</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010646</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009755</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>014136</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中欧金安量化混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>78.49</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001392</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>005067</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>006190</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>前海开源裕瑞混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>39.41</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>009270</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001393</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>003232</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>创金合信金融地产精选股票A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>002605</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>融通新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>26.73</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>012499</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>汇添富中证500基本面增强指数C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>43.92</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>001470</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>融通通鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>30.55</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>005305</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>长信合利混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>35.34</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>43.92</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>48.69</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>009241</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>融通领先成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010647</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>015558</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>万家中证红利指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>005306</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>长信合利混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>35.34</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>014929</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>002001</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>华夏回报混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>48.33</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>003177</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>德邦景颐债券C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>22.77</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2821,7 +7144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4169,7 +8492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4909,7 +9232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5041,7 +9364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5211,7 +9534,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5419,7 +9742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600325-华发股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600325-华发股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="D2" t="n">
-        <v>25.9</v>
+        <v>21.67</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="D3" t="n">
-        <v>11.52</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D4" t="n">
-        <v>12.89</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>8.369999999999999</v>
+        <v>12.89</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>8.369999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.55</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -616,7 +633,2399 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501072</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3580</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0050</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>101.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0810</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0376</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001852</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5765</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161606</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通行业景气混合A/B</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4936</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011338</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>32.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2838</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>59.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0099</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>30.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9798</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>34.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8176</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>340006</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴全全球视野股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8071</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>30.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5031</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3452</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3183</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011011</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>融通产业趋势精选2年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2218</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010790</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1996</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009277</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>融通行业景气混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1500</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1189</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159707</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝中证800地产ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1126</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008682</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010568</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159768</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华中证内地地产主题ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>97.04</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010791</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011339</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014922</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏ESG可持续投资一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010569</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011376</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华宝安享混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>24.21</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012245</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009273</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>015042</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005492</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>农银汇理研究驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>76.55</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>970042</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国海量化优选一年持有股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>015674</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005544</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银华瑞和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012244</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009499</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>29.43</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>016374</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519224</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>海富通欣荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001392</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007084</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>天治转型升级混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001393</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005618</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>84.29</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014923</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏ESG可持续投资一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009755</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>29.43</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005067</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>970041</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国海量化优选一年持有股票A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009270</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005619</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>84.29</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>519223</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>海富通欣荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4922,7 +7331,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7144,7 +9553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8492,7 +10901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9232,7 +11641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9364,7 +11773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9534,7 +11943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9740,212 +12149,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>161038</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国新兴成长量化精选混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.83</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0607</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007751</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.22</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0156</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007760</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城中证沪港深红利成长低波动指数C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.22</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>501072</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国金标普中国A股低波红利指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>97.85</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>